--- a/Template/Example/Договоры.xlsx
+++ b/Template/Example/Договоры.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nevolin_DA\Desktop\rx-util-importdata-net-core\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agaf73\source\repos\rx-util-importdata-net-core\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8696464-F0D2-4BE6-9CA0-082C214EB032}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Договоры" sheetId="1" r:id="rId1"/>
@@ -160,9 +161,6 @@
     <t>01.04.2023</t>
   </si>
   <si>
-    <t>D:\tmp\IncommingLetter1.txt</t>
-  </si>
-  <si>
     <t>Загружен</t>
   </si>
   <si>
@@ -176,12 +174,16 @@
   </si>
   <si>
     <t>123. Тест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D:\tmp\IncommingLetter1.txt
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -322,18 +324,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -347,23 +349,23 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -380,17 +382,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -402,29 +394,28 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -435,27 +426,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,11 +797,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -823,15 +815,15 @@
     <col min="7" max="7" width="20" style="13" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="44.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="13.42578125" style="19" customWidth="1"/>
+    <col min="18" max="21" width="13.42578125" style="13" customWidth="1"/>
     <col min="22" max="22" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
@@ -854,16 +846,16 @@
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="31" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -890,31 +882,31 @@
       <c r="Q1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="24" t="s">
         <v>43</v>
       </c>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:25" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="7">
@@ -929,17 +921,17 @@
       <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="37" t="s">
-        <v>45</v>
+      <c r="I2" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="J2" s="11">
         <v>40410</v>
@@ -961,31 +953,31 @@
       <c r="Q2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="36">
+      <c r="R2" s="32">
         <v>3</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="38" t="s">
-        <v>50</v>
+      <c r="T2" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="U2" s="11">
         <v>40410</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" t="s">
-        <v>47</v>
-      </c>
       <c r="Y2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
@@ -993,7 +985,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="33"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
       <c r="L3" s="12"/>
@@ -1006,12 +998,12 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="31"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
@@ -1019,7 +1011,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="33"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="12"/>
@@ -1032,9 +1024,9 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="31"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="27"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
@@ -1045,12 +1037,12 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="33"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="12"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="24"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
@@ -1058,9 +1050,9 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="30"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="26"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -1071,7 +1063,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="33"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="12"/>
@@ -1084,9 +1076,9 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="30"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="26"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -1097,7 +1089,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="33"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="12"/>
@@ -1110,9 +1102,9 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="30"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="26"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
@@ -1123,7 +1115,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="33"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="12"/>
@@ -1136,9 +1128,9 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="30"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="26"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
@@ -1149,7 +1141,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="33"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="12"/>
@@ -1162,9 +1154,9 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="30"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="26"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -1175,7 +1167,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="33"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="12"/>
@@ -1188,9 +1180,9 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="30"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="26"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
@@ -1201,7 +1193,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="33"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="12"/>
@@ -1214,9 +1206,9 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="30"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="26"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
@@ -1227,7 +1219,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="33"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="12"/>
@@ -1240,9 +1232,9 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="30"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="26"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
@@ -1253,7 +1245,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="33"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
@@ -1266,9 +1258,9 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="30"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="26"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
@@ -1279,7 +1271,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="33"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="12"/>
@@ -1292,9 +1284,9 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="30"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="26"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
@@ -1305,11 +1297,11 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="33"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="25"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -1318,9 +1310,9 @@
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="30"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="26"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
@@ -1331,7 +1323,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="33"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12"/>
@@ -1344,9 +1336,9 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="30"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="26"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -1357,7 +1349,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="33"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12"/>
@@ -1370,9 +1362,9 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="30"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="26"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
@@ -1383,7 +1375,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="33"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="12"/>
@@ -1396,9 +1388,9 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="30"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="26"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
@@ -1409,7 +1401,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="33"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="12"/>
@@ -1422,9 +1414,9 @@
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="30"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="26"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
@@ -1435,7 +1427,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="33"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="12"/>
@@ -1448,9 +1440,9 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="30"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="26"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
@@ -1461,7 +1453,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="33"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
@@ -1471,24 +1463,24 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="30"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="26"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
-      <c r="L22" s="18"/>
+      <c r="L22" s="14"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:X22"/>
+  <autoFilter ref="A1:X22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1503,79 +1495,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
+      <c r="A3" s="20">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="20">
         <v>5</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+      <c r="A5" s="20">
         <v>7</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="A6" s="20">
         <v>14</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+      <c r="A7" s="20">
         <v>15</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Template/Example/Договоры.xlsx
+++ b/Template/Example/Договоры.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agaf73\source\repos\rx-util-importdata-net-core\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agafonov_DA\source\repos\rx-util-importdata-net-core\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8696464-F0D2-4BE6-9CA0-082C214EB032}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Договоры" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Содержание</t>
   </si>
@@ -128,9 +127,6 @@
     <t>Диагностика</t>
   </si>
   <si>
-    <t>Наша</t>
-  </si>
-  <si>
     <t>Отдел продаж</t>
   </si>
   <si>
@@ -158,32 +154,42 @@
     <t>Подробности</t>
   </si>
   <si>
-    <t>01.04.2023</t>
+    <t>Дело</t>
+  </si>
+  <si>
+    <t>Дата помещения</t>
+  </si>
+  <si>
+    <t>123. Тест</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>ТехноСистемы ЗАО</t>
   </si>
   <si>
     <t>Загружен</t>
   </si>
   <si>
+    <t>18.12.2023</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Дело</t>
-  </si>
-  <si>
-    <t>Дата помещения</t>
-  </si>
-  <si>
-    <t>123. Тест</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D:\tmp\IncommingLetter1.txt
-</t>
+    <t>C:\Documents\test\testv1.docx
+C:\Documents\test\testv1.pdf
+C:\Documents\test\testv2.docx</t>
+  </si>
+  <si>
+    <t>C:\Documents\test\test2.docx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -797,11 +803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -889,28 +895,28 @@
         <v>29</v>
       </c>
       <c r="T1" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="V1" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="X1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="24" t="s">
-        <v>43</v>
-      </c>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7">
-        <v>40410</v>
+        <v>45158</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>30</v>
@@ -925,82 +931,127 @@
         <v>33</v>
       </c>
       <c r="G2" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="32" t="s">
-        <v>35</v>
-      </c>
       <c r="I2" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="11">
-        <v>40410</v>
+        <v>45158</v>
       </c>
       <c r="K2" s="11">
-        <v>42235</v>
+        <v>45888</v>
       </c>
       <c r="L2" s="12">
         <v>10000</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R2" s="32">
         <v>3</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="U2" s="11">
         <v>40410</v>
       </c>
       <c r="V2" s="33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="W2" s="34" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="X2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10"/>
+      <c r="B3" s="7">
+        <v>45158</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="11">
+        <v>45158</v>
+      </c>
+      <c r="K3" s="11">
+        <v>45888</v>
+      </c>
+      <c r="L3" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="27"/>
+      <c r="Q3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="32">
+        <v>3</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="11">
+        <v>40410</v>
+      </c>
+      <c r="V3" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
@@ -1473,14 +1524,14 @@
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:X22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X22"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
